--- a/p1rubric.xlsx
+++ b/p1rubric.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\asouza\SFSUClasses\csc413\a1\sols\calculator-rajeshpanta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CA9D35-B804-4AD6-B2EE-642E4AEDFD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9965A3AE-2359-4353-B7FC-FBD905291128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41475" yWindow="-15870" windowWidth="16125" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22455" yWindow="-15240" windowWidth="20790" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment 1 Rubric" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Description</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Code Review - Looking for Code is clean, well formatted (appropriate white space and indentation) , Classes, methods, and variables are meaningfully named (no comments exist to explain functionality - the identifiers serve that purpose), Code is well organized into a meaningful file structure</t>
+  </si>
+  <si>
+    <t>should not use null's to denote parens, generally not a safe thing to do</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1477,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19:C19"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1833,10 +1836,11 @@
         <v>15</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D16" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -1902,7 +1906,7 @@
       </c>
       <c r="C19" s="11">
         <f>SUM(C2:C18)</f>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D19" s="12"/>
     </row>
